--- a/datatemplates/compound-data.xlsx
+++ b/datatemplates/compound-data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\web-intellij\germinate3-bootstrap\datatemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31499B8-3621-4149-9EC6-1FEDF9807AA6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATA" sheetId="3" r:id="rId1"/>
@@ -255,7 +256,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyymmdd"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,14 +323,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -371,7 +364,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -423,9 +416,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -438,6 +428,15 @@
   </cellStyles>
   <dxfs count="22">
     <dxf>
+      <numFmt numFmtId="164" formatCode="yyyymmdd"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyymmdd"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="yyyymmdd"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -445,15 +444,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyymmdd"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyymmdd"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyymmdd"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -644,8 +634,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{35BDF020-ABCA-4439-B958-8014090B32CC}" name="Table8" displayName="Table8" ref="A1:G3" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:G3" xr:uid="{1B38FBA2-DC2A-4EE8-9782-869C402F129F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{35BDF020-ABCA-4439-B958-8014090B32CC}" name="Table8" displayName="Table8" ref="A1:G2" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:G2" xr:uid="{1B38FBA2-DC2A-4EE8-9782-869C402F129F}"/>
   <tableColumns count="7">
     <tableColumn id="2" xr3:uid="{11A585B5-EAF2-4086-9D85-0D60A53887C4}" name="Last Name" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{4077ACA3-84ED-4981-AB4E-365AEBA76825}" name="First Name" dataDxfId="11"/>
@@ -720,9 +710,9 @@
   <autoFilter ref="A1:D12" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Line/Phenotype"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Quercetin" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Catechin" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Epicatechin" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Quercetin" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Catechin" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Epicatechin" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -733,9 +723,9 @@
   <autoFilter ref="A1:D12" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Line/Phenotype"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Quercetin" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Catechin" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Epicatechin" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Quercetin" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Catechin" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Epicatechin" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1235,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2115B6D0-8EC1-4029-B8F6-04E7D9736B3A}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,7 +1236,7 @@
     <col min="1" max="1" width="42.42578125" style="22" customWidth="1"/>
     <col min="2" max="2" width="40.85546875" style="22" customWidth="1"/>
     <col min="3" max="3" width="46.42578125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="53.140625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="53.140625" style="23" customWidth="1"/>
     <col min="5" max="5" width="42.28515625" style="22" customWidth="1"/>
     <col min="6" max="6" width="25" style="22" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="22" customWidth="1"/>
@@ -1272,7 +1262,7 @@
       <c r="F1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1298,15 +1288,6 @@
       <c r="G2" s="20" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1633,7 +1614,7 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/datatemplates/compound-data.xlsx
+++ b/datatemplates/compound-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\web-intellij\germinate3-bootstrap\datatemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\web-intellij\germinate\datatemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31499B8-3621-4149-9EC6-1FEDF9807AA6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733B47C3-10ED-4864-943F-1EAF88BCA1C9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1228,7 +1228,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/datatemplates/compound-data.xlsx
+++ b/datatemplates/compound-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\web-intellij\germinate\datatemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733B47C3-10ED-4864-943F-1EAF88BCA1C9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031DAD14-EABF-4E20-81BE-3DC6B2831469}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATA" sheetId="3" r:id="rId1"/>
@@ -359,12 +359,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -420,13 +421,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 4" xfId="1" xr:uid="{AC6FD0CA-C916-4E1F-8927-7A9CF5AB4487}"/>
+    <cellStyle name="Warning Text" xfId="3" builtinId="11"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="yyyymmdd"/>
     </dxf>
@@ -591,8 +621,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="21"/>
-      <tableStyleElement type="headerRow" dxfId="20"/>
+      <tableStyleElement type="wholeTable" dxfId="24"/>
+      <tableStyleElement type="headerRow" dxfId="23"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -607,12 +637,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CDFAA9A6-0123-422D-B80F-81EB2270DAA0}" name="Table7" displayName="Table7" ref="A1:C12" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CDFAA9A6-0123-422D-B80F-81EB2270DAA0}" name="Table7" displayName="Table7" ref="A1:C12" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A1:C12" xr:uid="{DCA4608A-E2D9-45F1-81E3-F49396F38526}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1E03C996-7263-422B-8AA0-13669C78161F}" name="LABEL" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{A20F043F-90CD-41BB-866B-522B95F3EC18}" name="DEFINITION" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{139364FF-5D24-40BF-A84C-CF209A3E5D65}" name="VALUE" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{1E03C996-7263-422B-8AA0-13669C78161F}" name="LABEL" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{A20F043F-90CD-41BB-866B-522B95F3EC18}" name="DEFINITION" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{139364FF-5D24-40BF-A84C-CF209A3E5D65}" name="VALUE" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -634,16 +664,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{35BDF020-ABCA-4439-B958-8014090B32CC}" name="Table8" displayName="Table8" ref="A1:G2" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{35BDF020-ABCA-4439-B958-8014090B32CC}" name="Table8" displayName="Table8" ref="A1:G2" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:G2" xr:uid="{1B38FBA2-DC2A-4EE8-9782-869C402F129F}"/>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{11A585B5-EAF2-4086-9D85-0D60A53887C4}" name="Last Name" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{4077ACA3-84ED-4981-AB4E-365AEBA76825}" name="First Name" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{0A90BD52-57A6-4CDE-BA8E-5136E8A1EAB8}" name="Email" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{03F1C9C1-7B2C-4F0C-B099-1F465D301B93}" name="Phone" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{65BCBC93-FC74-4E14-B6A5-BF465AB5D91D}" name="Contributor" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{5C332E95-780E-414E-B1E2-86318BE35F31}" name="Address" dataDxfId="7"/>
-    <tableColumn id="1" xr3:uid="{9A8DCFA6-0AF2-4BA7-95EB-E0D0FE3A6153}" name="Country" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{11A585B5-EAF2-4086-9D85-0D60A53887C4}" name="Last Name" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{4077ACA3-84ED-4981-AB4E-365AEBA76825}" name="First Name" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{0A90BD52-57A6-4CDE-BA8E-5136E8A1EAB8}" name="Email" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{03F1C9C1-7B2C-4F0C-B099-1F465D301B93}" name="Phone" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{65BCBC93-FC74-4E14-B6A5-BF465AB5D91D}" name="Contributor" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{5C332E95-780E-414E-B1E2-86318BE35F31}" name="Address" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{9A8DCFA6-0AF2-4BA7-95EB-E0D0FE3A6153}" name="Country" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -668,7 +698,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{22E566EA-CF41-4BD4-A877-BF1A04CBE27C}" name="Table47" displayName="Table47" ref="A1:A2" insertRow="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{22E566EA-CF41-4BD4-A877-BF1A04CBE27C}" name="Table47" displayName="Table47" ref="A1:A2" insertRow="1" totalsRowShown="0" headerRowCellStyle="Warning Text">
   <autoFilter ref="A1:A2" xr:uid="{C24E8378-3794-454E-84CF-B08C2B5A27D2}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{CCD80E05-5388-423E-BBDC-2354AB7B8FC3}" name="Line/Compound"/>
@@ -710,9 +740,9 @@
   <autoFilter ref="A1:D12" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Line/Phenotype"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Quercetin" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Catechin" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Epicatechin" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Quercetin" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Catechin" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Epicatechin" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -723,9 +753,9 @@
   <autoFilter ref="A1:D12" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Line/Phenotype"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Quercetin" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Catechin" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Epicatechin" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Quercetin" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Catechin" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Epicatechin" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -997,7 +1027,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1053,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1032,7 +1062,7 @@
       <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1165,6 +1195,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C3">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
+      <formula>LEN(TRIM(C2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -1227,7 +1262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2115B6D0-8EC1-4029-B8F6-04E7D9736B3A}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1303,7 +1338,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,7 +1353,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1371,6 +1406,11 @@
       <c r="I4" s="3"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(A2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="7">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Phenotype Name" prompt="This should be the full name of the phenotype that has been scored." sqref="A1" xr:uid="{53C12F0B-3F9F-48BF-B0F0-E08B964BA4CC}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Phenotype Description" prompt="This should be a full description of the phenotype. There is no limit to the length of text that can be used here so please be descriptive." sqref="B1" xr:uid="{F089AE66-013F-4735-81BE-5882571D1849}"/>
@@ -1391,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1401,7 +1441,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="27" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1439,6 +1479,11 @@
       <c r="A12" s="3"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Please enter data here!" prompt="Lines (ACCENUMB from MCPD data) on the Y axis and phenotypes (which are described in PHENOTYPES tab) on the x axis. The actual phenotype value goes in the matrix cells. See DATA_EXAMPLE tab for more information before completion." sqref="A1" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
   </dataValidations>
